--- a/temp/tafsil.xlsx
+++ b/temp/tafsil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954D2E73-DCD9-43CB-AB08-2141F6C66BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A32CC56-880B-40A4-9E50-25C208C5B929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{2BB535AB-5B83-43FC-89F4-B7674326A002}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t xml:space="preserve">هزینه مضاربه -خرید دین -پرداختی </t>
   </si>
@@ -214,6 +214,60 @@
   </si>
   <si>
     <t xml:space="preserve">هزینه بیمه تامین اجتماعی پرسنل - عوارض شهرداری </t>
+  </si>
+  <si>
+    <t>هزینه تخفیف فاکتور  فروش+</t>
+  </si>
+  <si>
+    <t>انواع تخفیف+</t>
+  </si>
+  <si>
+    <t>حواله پرداخت+</t>
+  </si>
+  <si>
+    <t>درآمد تخفیف فاکتور خرید+</t>
+  </si>
+  <si>
+    <t>کسری انبار گردانی+</t>
+  </si>
+  <si>
+    <t>درآمد ماشین+</t>
+  </si>
+  <si>
+    <t>انواع سند پرداخت+</t>
+  </si>
+  <si>
+    <t>انواع خرج کرد+</t>
+  </si>
+  <si>
+    <t>بس بابت ماهانه+</t>
+  </si>
+  <si>
+    <t>اجاره انبار سپاهی+</t>
+  </si>
+  <si>
+    <t>اهدایی به مجتمع+</t>
+  </si>
+  <si>
+    <t>پورسانت و هدیه+</t>
+  </si>
+  <si>
+    <t>تخفیف فاکتور خرید+</t>
+  </si>
+  <si>
+    <t>کسر از هزینه کسری انبار+</t>
+  </si>
+  <si>
+    <t>درآمد اضافه 40+</t>
+  </si>
+  <si>
+    <t>سود سپرده+</t>
+  </si>
+  <si>
+    <t>درآمد اضافه شرایط 7 بتا رفاه+</t>
+  </si>
+  <si>
+    <t>صفر کردن حساب+</t>
   </si>
 </sst>
 </file>
@@ -580,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D9D4CC-8D4A-4987-A5D3-6249F9C2EAF1}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1536,6 +1590,366 @@
         <v>1</v>
       </c>
     </row>
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>501</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>400001</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>501</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>400002</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>501</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>400083</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>501</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>400094</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>501</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>400100</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>501</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>400032</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>501</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>400033</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>501</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>400040</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>501</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1">
+        <v>400055</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>501</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1">
+        <v>400085</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>501</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>400099</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>501</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>400014</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>401</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>300001</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>401</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>300009</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>401</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>300012</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>401</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1">
+        <v>300004</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>401</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>300007</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>401</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1">
+        <v>300011</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F47" xr:uid="{B3D9D4CC-8D4A-4987-A5D3-6249F9C2EAF1}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F47">

--- a/temp/tafsil.xlsx
+++ b/temp/tafsil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mydjango\mojallal24mehr\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A32CC56-880B-40A4-9E50-25C208C5B929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375B6348-1D85-4A53-9D9E-6DC117109ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{2BB535AB-5B83-43FC-89F4-B7674326A002}"/>
   </bookViews>
@@ -219,9 +219,6 @@
     <t>هزینه تخفیف فاکتور  فروش+</t>
   </si>
   <si>
-    <t>انواع تخفیف+</t>
-  </si>
-  <si>
     <t>حواله پرداخت+</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>صفر کردن حساب+</t>
+  </si>
+  <si>
+    <t>برگشت اضافه شرایط و تخفیف+</t>
   </si>
 </sst>
 </file>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D9D4CC-8D4A-4987-A5D3-6249F9C2EAF1}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1621,7 @@
         <v>400002</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E49" s="1" t="b">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>400083</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50" s="1" t="b">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>400094</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51" s="1" t="b">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         <v>400100</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E52" s="1" t="b">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>400032</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E53" s="1" t="b">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>400033</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E54" s="1" t="b">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>400040</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E55" s="1" t="b">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>400055</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E56" s="1" t="b">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>400085</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E57" s="1" t="b">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>400099</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E58" s="1" t="b">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>400014</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E59" s="1" t="b">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>300001</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E60" s="1" t="b">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>300009</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E61" s="1" t="b">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>300012</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E62" s="1" t="b">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>300004</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E63" s="1" t="b">
         <v>0</v>
@@ -1921,7 +1921,7 @@
         <v>300007</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E64" s="1" t="b">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>300011</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E65" s="1" t="b">
         <v>0</v>
